--- a/report_generator/data/icp_info.xlsx
+++ b/report_generator/data/icp_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\安服\tools\渗透测试漏洞报告生成\XhitReport\XhitReport-s1g0day\XhitReport-s1g0day-debug\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20240710\tools\蓝队\tools\渗透测试漏洞报告生成\ReportGenX-s1g0day\ReportGenX-s1g0day-debug - 副本\report_generator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD224B4-7C7A-4E26-9786-5E7A94054492}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC2B2EE-8725-47C4-A437-3E876EE57BA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,15 +82,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>京ICP证030173号-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>京ICP证030173号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>京ICP证030173号-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +176,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7023C1-92F5-45C9-AB51-2CB2A5DDD927}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -564,16 +565,16 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>43601.671076388891</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2">
         <v>282751</v>
@@ -581,6 +582,15 @@
       <c r="L2">
         <v>282911</v>
       </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
